--- a/DATA/PANW_stock_data.xlsx
+++ b/DATA/PANW_stock_data.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G2871"/>
+  <dimension ref="A1:G2872"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -66483,7 +66483,30 @@
         <v>300.4400024414062</v>
       </c>
       <c r="G2871" t="n">
-        <v>6791500</v>
+        <v>6796000</v>
+      </c>
+    </row>
+    <row r="2872">
+      <c r="A2872" s="2" t="n">
+        <v>45275</v>
+      </c>
+      <c r="B2872" t="n">
+        <v>301.0299987792969</v>
+      </c>
+      <c r="C2872" t="n">
+        <v>309.0499877929688</v>
+      </c>
+      <c r="D2872" t="n">
+        <v>299.25</v>
+      </c>
+      <c r="E2872" t="n">
+        <v>307.2999877929688</v>
+      </c>
+      <c r="F2872" t="n">
+        <v>307.2999877929688</v>
+      </c>
+      <c r="G2872" t="n">
+        <v>8788100</v>
       </c>
     </row>
   </sheetData>
